--- a/src/P07_af_all/T08_ml_auto_optuna_6061/S03_calculate_performance.xlsx
+++ b/src/P07_af_all/T08_ml_auto_optuna_6061/S03_calculate_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +494,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.5754194999747637</v>
+        <v>0.7334869850517143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9446915132309048</v>
+        <v>1.03407283452824</v>
       </c>
       <c r="G2" t="n">
-        <v>1.782831600134791</v>
+        <v>1.507234016635463</v>
       </c>
       <c r="H2" t="n">
-        <v>1.561173787330221</v>
+        <v>1.847125333658459</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4245805000252361</v>
+        <v>0.2665130149482854</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2610005174995974</v>
+        <v>0.1910806026291567</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +530,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -539,22 +539,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.743391800856249</v>
+        <v>0.8814697815938023</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8686340535550201</v>
+        <v>0.7920689581776038</v>
       </c>
       <c r="G3" t="n">
-        <v>1.398219141526514</v>
+        <v>1.169781381157696</v>
       </c>
       <c r="H3" t="n">
-        <v>5.382838774599944</v>
+        <v>3.498369961808767</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2566081991437509</v>
+        <v>0.1185302184061975</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.05927777701289361</v>
+        <v>0.03409146599138435</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,22 +575,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.4264452541561172</v>
+        <v>0.6333709708869775</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4757262331234003</v>
+        <v>0.5888578487576411</v>
       </c>
       <c r="G4" t="n">
-        <v>1.257726326715083</v>
+        <v>1.335050010175519</v>
       </c>
       <c r="H4" t="n">
-        <v>1.194506100952745</v>
+        <v>1.302955638350207</v>
       </c>
       <c r="I4" t="n">
-        <v>0.573554745843883</v>
+        <v>0.3666290291130228</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4422855091682607</v>
+        <v>0.3096564107135279</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -611,22 +611,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5817521849957102</v>
+        <v>0.7494425791774981</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7630172666364418</v>
+        <v>0.8049998804878284</v>
       </c>
       <c r="G5" t="n">
-        <v>1.479592356125463</v>
+        <v>1.33735513598956</v>
       </c>
       <c r="H5" t="n">
-        <v>2.712839554294303</v>
+        <v>2.216150311272477</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4182478150042896</v>
+        <v>0.2505574208225016</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2146694165516547</v>
+        <v>0.1782761597780225</v>
       </c>
     </row>
     <row r="6">
@@ -638,7 +638,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6603441898416509</v>
+        <v>0.8168449841553909</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6486986958716841</v>
+        <v>0.7578245708195307</v>
       </c>
       <c r="G6" t="n">
-        <v>1.709602707373181</v>
+        <v>1.310458018606251</v>
       </c>
       <c r="H6" t="n">
-        <v>1.65125240241125</v>
+        <v>1.335777709268072</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3396558101583491</v>
+        <v>0.1831550158446091</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2565165906311365</v>
+        <v>0.1314457710458389</v>
       </c>
     </row>
     <row r="7">
@@ -674,7 +674,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8070152465021471</v>
+        <v>0.9029403236696129</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8860742622969709</v>
+        <v>0.8652908469343401</v>
       </c>
       <c r="G7" t="n">
-        <v>1.460336932208241</v>
+        <v>1.183609664167305</v>
       </c>
       <c r="H7" t="n">
-        <v>1.296781799756937</v>
+        <v>1.037571749481288</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1929847534978533</v>
+        <v>0.09705967633038759</v>
       </c>
       <c r="J7" t="n">
-        <v>0.009487686198720424</v>
+        <v>0.03272076012433789</v>
       </c>
     </row>
     <row r="8">
@@ -710,7 +710,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -719,22 +719,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5748488572080129</v>
+        <v>0.7539458562769197</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7325159620073394</v>
+        <v>0.9432098392540471</v>
       </c>
       <c r="G8" t="n">
-        <v>1.709619609553058</v>
+        <v>1.378620898692479</v>
       </c>
       <c r="H8" t="n">
-        <v>1.203150456763082</v>
+        <v>1.13802281178301</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4251511427919867</v>
+        <v>0.24605414372308</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3364082221795003</v>
+        <v>0.1455390373020845</v>
       </c>
     </row>
     <row r="9">
@@ -746,7 +746,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6807360978506036</v>
+        <v>0.8245770547006414</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7557629733919979</v>
+        <v>0.8554417523359726</v>
       </c>
       <c r="G9" t="n">
-        <v>1.626519749711494</v>
+        <v>1.290896193822012</v>
       </c>
       <c r="H9" t="n">
-        <v>1.383728219643756</v>
+        <v>1.17045742351079</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3192639021493962</v>
+        <v>0.1754229452993586</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2008041663364523</v>
+        <v>0.1032351894907536</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6782492356962699</v>
+        <v>0.7773386711256638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9306629063737766</v>
+        <v>0.9471500033912655</v>
       </c>
       <c r="G10" t="n">
-        <v>1.010751015682946</v>
+        <v>1.155103640801906</v>
       </c>
       <c r="H10" t="n">
-        <v>1.545035169928528</v>
+        <v>1.511224176245011</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3217507643037296</v>
+        <v>0.2226613288743358</v>
       </c>
       <c r="J10" t="n">
-        <v>0.172955046285588</v>
+        <v>0.1583035862388524</v>
       </c>
     </row>
     <row r="11">
@@ -818,7 +818,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8528068203028331</v>
+        <v>0.9105386916904014</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8898000024287273</v>
+        <v>0.8461270943357316</v>
       </c>
       <c r="G11" t="n">
-        <v>1.512125184161026</v>
+        <v>1.343787415095058</v>
       </c>
       <c r="H11" t="n">
-        <v>2.15818166406218</v>
+        <v>2.042990874070976</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1471931796971665</v>
+        <v>0.0894613083095982</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03444368897983441</v>
+        <v>0.08183484644746242</v>
       </c>
     </row>
     <row r="12">
@@ -854,7 +854,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -863,22 +863,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5982789380169614</v>
+        <v>0.7368279084950162</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4539769049202182</v>
+        <v>0.5452614297789961</v>
       </c>
       <c r="G12" t="n">
-        <v>1.041718740534247</v>
+        <v>1.183214889829157</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8198135576218226</v>
+        <v>0.9824950859575609</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4017210619830384</v>
+        <v>0.2631720915049834</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3817928442551951</v>
+        <v>0.2574853170113183</v>
       </c>
     </row>
     <row r="13">
@@ -890,7 +890,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7097783313386884</v>
+        <v>0.8082350904370275</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7581466045742408</v>
+        <v>0.7795128425019978</v>
       </c>
       <c r="G13" t="n">
-        <v>1.188198313459406</v>
+        <v>1.227368648575374</v>
       </c>
       <c r="H13" t="n">
-        <v>1.507676797204177</v>
+        <v>1.512236712091183</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2902216686613117</v>
+        <v>0.1917649095629726</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1963971931735391</v>
+        <v>0.1658745832325443</v>
       </c>
     </row>
     <row r="14">
@@ -926,7 +926,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -935,22 +935,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.6634151320592923</v>
+        <v>0.7982698224506038</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8067096301967555</v>
+        <v>0.9108401964459604</v>
       </c>
       <c r="G14" t="n">
-        <v>1.30851586570299</v>
+        <v>1.196558863822219</v>
       </c>
       <c r="H14" t="n">
-        <v>3.126917445433407</v>
+        <v>1.974410303371759</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3365848679407076</v>
+        <v>0.201730177549396</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2867165902195085</v>
+        <v>0.1946455369230569</v>
       </c>
     </row>
     <row r="15">
@@ -962,7 +962,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -971,22 +971,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.8363159733913456</v>
+        <v>0.905791198132638</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8952772494119319</v>
+        <v>0.9292821615892241</v>
       </c>
       <c r="G15" t="n">
-        <v>2.636569947540273</v>
+        <v>2.08357230366889</v>
       </c>
       <c r="H15" t="n">
-        <v>1.055681326233698</v>
+        <v>1.039918710857873</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1636840266086539</v>
+        <v>0.09420880186736147</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1018332232936736</v>
+        <v>0.06771855950374484</v>
       </c>
     </row>
     <row r="16">
@@ -998,7 +998,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5055018896232543</v>
+        <v>0.70125415848896</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5439597653523667</v>
+        <v>0.6714374209258521</v>
       </c>
       <c r="G16" t="n">
-        <v>1.24024280945728</v>
+        <v>1.144724125382377</v>
       </c>
       <c r="H16" t="n">
-        <v>1.131002327977397</v>
+        <v>1.026665983797596</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4944981103767462</v>
+        <v>0.2987458415110406</v>
       </c>
       <c r="J16" t="n">
-        <v>0.35578233950331</v>
+        <v>0.2048091200300723</v>
       </c>
     </row>
     <row r="17">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1043,22 +1043,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6684109983579641</v>
+        <v>0.8017717263574009</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7486488816536848</v>
+        <v>0.8371865929870123</v>
       </c>
       <c r="G17" t="n">
-        <v>1.728442874233514</v>
+        <v>1.474951764291162</v>
       </c>
       <c r="H17" t="n">
-        <v>1.771200366548167</v>
+        <v>1.346998332675743</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3315890016420355</v>
+        <v>0.1982282736425987</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2481107176721638</v>
+        <v>0.1557244054856245</v>
       </c>
     </row>
     <row r="18">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.6875633285078738</v>
+        <v>0.7082889866985135</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9626441973330345</v>
+        <v>0.9875373792275297</v>
       </c>
       <c r="G18" t="n">
-        <v>16.88171307718897</v>
+        <v>18.99739961706877</v>
       </c>
       <c r="H18" t="n">
-        <v>1.127737771074377</v>
+        <v>1.1822389192952</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3124366714921256</v>
+        <v>0.291711013301486</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1745448431140061</v>
+        <v>0.1531992562159185</v>
       </c>
     </row>
     <row r="19">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.8316997051372734</v>
+        <v>0.8382714331109768</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8230615411530535</v>
+        <v>0.810662424675032</v>
       </c>
       <c r="G19" t="n">
-        <v>1.13608697250692</v>
+        <v>1.286871959904252</v>
       </c>
       <c r="H19" t="n">
-        <v>1.699418459251465</v>
+        <v>1.744142150717404</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1683002948627264</v>
+        <v>0.161728566889023</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.07502954994807798</v>
+        <v>-0.05883462898451586</v>
       </c>
     </row>
     <row r="20">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.6037404346027779</v>
+        <v>0.6449396192766313</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6806152780572213</v>
+        <v>0.7485577032959808</v>
       </c>
       <c r="G20" t="n">
-        <v>1.056336281526607</v>
+        <v>1.227704049040043</v>
       </c>
       <c r="H20" t="n">
-        <v>1.061805118386862</v>
+        <v>1.168772318574479</v>
       </c>
       <c r="I20" t="n">
-        <v>0.396259565397223</v>
+        <v>0.3550603807233697</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2839099174635364</v>
+        <v>0.2124262196014669</v>
       </c>
     </row>
     <row r="21">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GradientBoosting</t>
+          <t>ElasticNet</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1187,22 +1187,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.7076678227493082</v>
+        <v>0.7305000130287072</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8221070055144365</v>
+        <v>0.8489191690661809</v>
       </c>
       <c r="G21" t="n">
-        <v>6.358045443740831</v>
+        <v>7.170658542004353</v>
       </c>
       <c r="H21" t="n">
-        <v>1.296320449570901</v>
+        <v>1.365051129529028</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2923321772506919</v>
+        <v>0.269499986971293</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1278084035431546</v>
+        <v>0.1022636156109562</v>
       </c>
     </row>
     <row r="22">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1223,22 +1223,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6354719195979777</v>
+        <v>0.5517941130885532</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9858741851815556</v>
+        <v>0.9722343014348522</v>
       </c>
       <c r="G22" t="n">
-        <v>1.706289894918099</v>
+        <v>2.032558549559446</v>
       </c>
       <c r="H22" t="n">
-        <v>1.391607677645781</v>
+        <v>1.673657051773732</v>
       </c>
       <c r="I22" t="n">
-        <v>0.364528080402022</v>
+        <v>0.4482058869114465</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2287847382390972</v>
+        <v>0.2394547473256673</v>
       </c>
     </row>
     <row r="23">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8137035201962827</v>
+        <v>0.7391920997495753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8023674920075541</v>
+        <v>0.8774818942714427</v>
       </c>
       <c r="G23" t="n">
-        <v>1.163106398153759</v>
+        <v>1.504779511217478</v>
       </c>
       <c r="H23" t="n">
-        <v>4.128357476672125</v>
+        <v>6.377343609372917</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1862964798037172</v>
+        <v>0.2608079002504244</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02153265831255224</v>
+        <v>-0.07006750026527908</v>
       </c>
     </row>
     <row r="24">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1295,22 +1295,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.5071258749660255</v>
+        <v>0.4551211130472658</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5015308447856689</v>
+        <v>0.5374781556853424</v>
       </c>
       <c r="G24" t="n">
-        <v>1.14114344743425</v>
+        <v>1.392248008725146</v>
       </c>
       <c r="H24" t="n">
-        <v>1.142883795475937</v>
+        <v>1.32351595901059</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4928741250339748</v>
+        <v>0.5448788869527343</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4120336440149682</v>
+        <v>0.3698910527528605</v>
       </c>
     </row>
     <row r="25">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1331,22 +1331,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6521004382534287</v>
+        <v>0.5820357752951313</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7632575073249264</v>
+        <v>0.7957314504638791</v>
       </c>
       <c r="G25" t="n">
-        <v>1.336846580168702</v>
+        <v>1.64319535650069</v>
       </c>
       <c r="H25" t="n">
-        <v>2.220949649931281</v>
+        <v>3.124838873385746</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3478995617465712</v>
+        <v>0.4179642247048685</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2207836801888723</v>
+        <v>0.1797594332710828</v>
       </c>
     </row>
     <row r="26">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.7618082233594706</v>
+        <v>0.6611536490341068</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7430862428403112</v>
+        <v>0.6317310986407887</v>
       </c>
       <c r="G26" t="n">
-        <v>1.714745109056121</v>
+        <v>1.696703604687627</v>
       </c>
       <c r="H26" t="n">
-        <v>1.5352776169425</v>
+        <v>1.61291562562842</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2381917766405294</v>
+        <v>0.3388463509658932</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1483375921703785</v>
+        <v>0.2759634110399124</v>
       </c>
     </row>
     <row r="27">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1403,22 +1403,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.8605931751590851</v>
+        <v>0.8032084634409841</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9177967651479293</v>
+        <v>0.8769108412897356</v>
       </c>
       <c r="G27" t="n">
-        <v>1.482084207087166</v>
+        <v>1.526152717258636</v>
       </c>
       <c r="H27" t="n">
-        <v>1.229537175528019</v>
+        <v>1.292138207689564</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1394068248409153</v>
+        <v>0.1967915365590163</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.02597382197895359</v>
+        <v>0.01973116321912605</v>
       </c>
     </row>
     <row r="28">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1439,22 +1439,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.5743037659824646</v>
+        <v>0.5801421899628089</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6673007440015939</v>
+        <v>0.7493349609381447</v>
       </c>
       <c r="G28" t="n">
-        <v>1.65270878607236</v>
+        <v>1.715485720683974</v>
       </c>
       <c r="H28" t="n">
-        <v>1.145131435799904</v>
+        <v>1.173271286050826</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4256962340175352</v>
+        <v>0.4198578100371908</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3954871838703726</v>
+        <v>0.3211717632072352</v>
       </c>
     </row>
     <row r="29">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.7322350548336735</v>
+        <v>0.6815014341459665</v>
       </c>
       <c r="F29" t="n">
-        <v>0.776061250663278</v>
+        <v>0.7526589669562229</v>
       </c>
       <c r="G29" t="n">
-        <v>1.61651270073855</v>
+        <v>1.646114014210078</v>
       </c>
       <c r="H29" t="n">
-        <v>1.303315409423474</v>
+        <v>1.35944170645627</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2677649451663264</v>
+        <v>0.3184985658540335</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1726169846872656</v>
+        <v>0.2056221124887577</v>
       </c>
     </row>
     <row r="30">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.7409506888009324</v>
+        <v>0.7286710492440952</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9608822291734035</v>
+        <v>0.9332050450147126</v>
       </c>
       <c r="G30" t="n">
-        <v>1.158346314611948</v>
+        <v>1.066507249668863</v>
       </c>
       <c r="H30" t="n">
-        <v>1.499450677939379</v>
+        <v>1.480411613239325</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2590493111990672</v>
+        <v>0.2713289507559044</v>
       </c>
       <c r="J30" t="n">
-        <v>0.14610027614816</v>
+        <v>0.17069594374671</v>
       </c>
     </row>
     <row r="31">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.8944553411366237</v>
+        <v>0.8864199325195107</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8716393813885436</v>
+        <v>0.8726037404391218</v>
       </c>
       <c r="G31" t="n">
-        <v>1.385580094062428</v>
+        <v>1.394668023953242</v>
       </c>
       <c r="H31" t="n">
-        <v>1.600576682648815</v>
+        <v>1.623509176627631</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1055446588633759</v>
+        <v>0.1135800674804889</v>
       </c>
       <c r="J31" t="n">
-        <v>0.05415047950526986</v>
+        <v>0.05310401629462302</v>
       </c>
     </row>
     <row r="32">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1583,22 +1583,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.6991573025732004</v>
+        <v>0.6462774422287697</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5408331584293183</v>
+        <v>0.494319523221206</v>
       </c>
       <c r="G32" t="n">
-        <v>1.092520218828864</v>
+        <v>1.03489475777478</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9022315878894477</v>
+        <v>0.9047006732933797</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3008426974267993</v>
+        <v>0.3537225577712301</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2635155555681266</v>
+        <v>0.3268559189516163</v>
       </c>
     </row>
     <row r="33">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.7781877775035858</v>
+        <v>0.7537894746641252</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7911182563304218</v>
+        <v>0.7667094362250134</v>
       </c>
       <c r="G33" t="n">
-        <v>1.212148875834414</v>
+        <v>1.165356677132295</v>
       </c>
       <c r="H33" t="n">
-        <v>1.334086316159214</v>
+        <v>1.336207154386779</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2218122224964142</v>
+        <v>0.2462105253358749</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1545887704071856</v>
+        <v>0.1835519596643166</v>
       </c>
     </row>
     <row r="34">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.7648508106095805</v>
+        <v>0.6492206654629482</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8864314425800068</v>
+        <v>0.7949633927303438</v>
       </c>
       <c r="G34" t="n">
-        <v>1.359769547535823</v>
+        <v>1.346204692048258</v>
       </c>
       <c r="H34" t="n">
-        <v>2.314587525228598</v>
+        <v>3.360231241904975</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2351491893904194</v>
+        <v>0.3507793345370517</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2162274773565108</v>
+        <v>0.2971024787703741</v>
       </c>
     </row>
     <row r="35">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.8878365037215261</v>
+        <v>0.8279433690550333</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9013271253193568</v>
+        <v>0.8964240918872818</v>
       </c>
       <c r="G35" t="n">
-        <v>2.255784956684966</v>
+        <v>2.768297087122395</v>
       </c>
       <c r="H35" t="n">
-        <v>1.009106156088292</v>
+        <v>1.046548234235045</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1121634962784733</v>
+        <v>0.1720566309449661</v>
       </c>
       <c r="J35" t="n">
-        <v>0.09576382127679639</v>
+        <v>0.1006826793586507</v>
       </c>
     </row>
     <row r="36">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.551472890548094</v>
+        <v>0.4842266391025685</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5407150741646876</v>
+        <v>0.5385141016910082</v>
       </c>
       <c r="G36" t="n">
-        <v>1.287593815128631</v>
+        <v>1.254158675469543</v>
       </c>
       <c r="H36" t="n">
-        <v>1.11927755855046</v>
+        <v>1.151855172410082</v>
       </c>
       <c r="I36" t="n">
-        <v>0.4485271094519064</v>
+        <v>0.515773360897432</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3596250637250302</v>
+        <v>0.362231700149496</v>
       </c>
     </row>
     <row r="37">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1763,22 +1763,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.7347200682930671</v>
+        <v>0.6537968912068503</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7761578806880173</v>
+        <v>0.7433005287695446</v>
       </c>
       <c r="G37" t="n">
-        <v>1.634382773116472</v>
+        <v>1.789553484880065</v>
       </c>
       <c r="H37" t="n">
-        <v>1.480990413289117</v>
+        <v>1.852878216183367</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2652799317069324</v>
+        <v>0.3462031087931494</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2238721207861122</v>
+        <v>0.253338952759507</v>
       </c>
     </row>
     <row r="38">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1799,22 +1799,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.7064803348878878</v>
+        <v>0.6714339498708615</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9669624751390505</v>
+        <v>0.9686193359108867</v>
       </c>
       <c r="G38" t="n">
-        <v>25.54518337729616</v>
+        <v>21.05587968205528</v>
       </c>
       <c r="H38" t="n">
-        <v>1.165171929530775</v>
+        <v>1.21757514759477</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2935196651121116</v>
+        <v>0.328566050129138</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1708419748125946</v>
+        <v>0.169421237771699</v>
       </c>
     </row>
     <row r="39">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.834151787061139</v>
+        <v>0.8209190108318237</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8075074519132709</v>
+        <v>0.8404984432428696</v>
       </c>
       <c r="G39" t="n">
-        <v>1.279280082166601</v>
+        <v>1.172986133693231</v>
       </c>
       <c r="H39" t="n">
-        <v>1.793927384939855</v>
+        <v>1.846491183791042</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1658482129388609</v>
+        <v>0.1790809891681762</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.05471380839141293</v>
+        <v>-0.09780449941278357</v>
       </c>
     </row>
     <row r="40">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RandomForest</t>
+          <t>GradientBoosting</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1871,22 +1871,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.6327827161590945</v>
+        <v>0.6039070779040966</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6848861223039675</v>
+        <v>0.7174166683574246</v>
       </c>
       <c r="G40" t="n">
-        <v>1.104191258123215</v>
+        <v>1.171256272766761</v>
       </c>
       <c r="H40" t="n">
-        <v>1.019605650740836</v>
+        <v>1.226921755556407</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3672172838409064</v>
+        <v>0.3960929220959043</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2794164696851048</v>
+        <v>0.2451903772663891</v>
       </c>
     </row>
     <row r="41">
@@ -1898,31 +1898,2911 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>GradientBoosting</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.6987533462022609</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.8421781491703931</v>
+      </c>
+      <c r="G41" t="n">
+        <v>7.80004069617176</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.430329362314073</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3012466537977392</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1056023718751016</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7211279644919413</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.081920344634642</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.830732719890997</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.009695577034487</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.2788720355080584</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.1536511510967375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8492120827403435</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.8655092742237123</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.181819518202289</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.800571941033525</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.1507879172596562</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.05546718578615439</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6724932221957385</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6990130987181614</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.36191603916322</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.405515652768896</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.3275067778042619</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.180516634794888</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.747611089809341</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8821475725255054</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.458156092418835</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.738594390278969</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.2523889101906588</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.09290020003515649</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8135581791149226</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.7359410085112299</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.637965019001533</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.416897410000378</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.1864418208850774</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.1565268535540265</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9054793595963566</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.898587575225878</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.505960305466458</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.271551471106767</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.09452064040364383</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.00450052118967692</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0.7417652591214734</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8630194022205218</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.553728034395366</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.070053868570439</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.2582347408785264</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.21818416373654</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8202675992775843</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8325159953192099</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.565884452954453</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.252834249892528</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.1797324007224156</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.1234034987002963</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0.7985071366245362</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.012840563759351</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.358008333657721</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.845701774194752</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2014928633754632</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.09992686778685778</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8922820770436691</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.8623220441189798</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.599093982300708</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.862116755553267</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.1077179229563304</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.06426108163830524</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0.7463955701733871</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.6249256446485628</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.251895854097304</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.147427253200177</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.2536044298266126</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1490018519817197</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.8123949279471977</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8333627508422979</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.402999390018578</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.618415260982732</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.1876050720528023</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1043966004689608</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.743852494543356</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8754838987577118</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.48208487194721</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.30273405782092</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.2561475054566439</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.2259071701406212</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9057829754041159</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9733149344928852</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.969539073015736</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.159056144967848</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.09421702459588355</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.02354366984325051</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.6611824082450017</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6101861576933018</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.387989101561331</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.2085005675419</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.3388175917549988</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.2773496791219376</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7702726260641576</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.8196616636479662</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.946537682174759</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.890096923443556</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.229727373935842</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1756001730352698</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.7743997943081853</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.035597550142924</v>
+      </c>
+      <c r="G58" t="n">
+        <v>30.05733504208169</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.379211473721358</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.225600205691814</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.1119882708561744</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.8969175321354266</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.7757831990507418</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.539150882395491</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.374193413780816</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.1030824678645733</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.01327764891606487</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.7311439577120373</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.7687340757096386</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.239465387300248</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.203924809695962</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.2688560422879638</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1911982209761292</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>KNR</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.800820428051883</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8600382749677683</v>
+      </c>
+      <c r="G61" t="n">
+        <v>10.94531710392581</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.319109899066045</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.1991795719481171</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.09663628097207899</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>RandomForest</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6179991584540114</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9957050318160502</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.657574840401803</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.348531124535047</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.3820008415459882</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.2210944070847655</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.7858432894074259</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.8017745066001031</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.20513194328251</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.574457922239072</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.2141567105925739</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.02225578937290507</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.4669580823412692</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.4734505603722439</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.175672900081989</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.134793284821055</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.533041917658731</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.4449533790088159</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>Y-All</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>0.7244716127027071</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.8197853497854295</v>
-      </c>
-      <c r="G41" t="n">
-        <v>9.309551572528663</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1.326234988403822</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.275528387297293</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.1318482120354288</v>
+      <c r="E65" t="n">
+        <v>0.6236001767342353</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.7569766995961325</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.346126561255435</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.019260777198391</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.3763998232657644</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.2294345251554951</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.7646696642316237</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.7435019544414383</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.637634223994833</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1.461137521871186</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.2353303357683763</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.1478611388022939</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.8623974629826106</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.8957118057100886</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.37784571256526</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.176220680083434</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.1376025370173898</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.001285796151101026</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5753333204664893</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.6862708943850468</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.706624321906806</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.238123115574812</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.4246666795335104</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.378301980446298</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.734133482560241</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.7751615515121913</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.574034752822299</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.291827105843144</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.2658665174397589</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.1749591076991634</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7396937423282531</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.9635784203868853</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.179795935786647</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.519768541844749</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.2603062576717464</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1437042729099438</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.8824672681985248</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.8616297719825498</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.429118462642357</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.872539092727992</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.1175327318014748</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.06501229284132715</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.7147126486849537</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5540275503731962</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.075124452694634</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.8976248327228729</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.285287351315046</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.2455479730171147</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7789578864039104</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.7930785809142105</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.228012950374546</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1.429977489098538</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.2210421135960896</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.1514215129227952</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>4</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.7662350005506058</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.8818703686199425</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.36607068639351</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.370392275008101</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.2337649994493941</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.2202603266801296</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8929582367431905</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9027474399653602</v>
+      </c>
+      <c r="G75" t="n">
+        <v>2.085224784147649</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.011361507075305</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.1070417632568089</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.09433892253358833</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>4</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.5620545058713623</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.5410071595139583</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.286256528318842</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.100501462583136</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.4379454941286381</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.3592791437648459</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>4</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7404159143883863</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.7752083226997538</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.57918399962</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.494085081555514</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.2595840856116133</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.2246261309928544</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.6603143160175968</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9495078787863815</v>
+      </c>
+      <c r="G78" t="n">
+        <v>27.91023354293132</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.276073551261062</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.3396856839824026</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1858090692080013</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8134934346303182</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.8460253526692453</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.263517287881113</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2.007587771267357</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.1865065653696817</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-0.105023389685456</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5637973216126295</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.6252146137260236</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.12539359370084</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.031092101295943</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.4362026783873714</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.3421981569029204</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6792016907535148</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.8069159483938835</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10.09971480817109</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.438251141274788</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.3207983092464853</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.1409946121418217</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0.7192576340966892</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.013467309378827</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.027905710773676</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.11769485282483</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.2807423659033105</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.2071995919593205</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0.8244320322468383</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9004157566620746</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.408498764533149</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5.722280294801473</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.1755679677531615</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-0.09803477908890312</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0.5837260880030385</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.621681709607654</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.400517835806534</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.321736464948051</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.4162739119969617</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.271175575379084</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0.7091385847821887</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8451882585495186</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.612307437037786</v>
+      </c>
+      <c r="H85" t="n">
+        <v>3.053903870858118</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.290861415217811</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.1267801294165</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8325902200176692</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.7980708941517924</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.27770499546872</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.288141883642508</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.1674097799823308</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0853188497554801</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0.9071289502448956</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.8559952072829895</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.17495756734599</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.11352988276319</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.09287104975510474</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.04311203987492418</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0.753864225714282</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9880108342065179</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.539169408699803</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.386778312705128</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.2461357742857176</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.1049534754432435</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0.8311944653256154</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.8806923118804332</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.330610657171504</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.262816693036942</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.1688055346743845</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.07779478835788249</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0.8476724291863905</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9410310956861577</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.642881946962598</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.944647533181619</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.152327570813609</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1637412282734659</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>3</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0.8745881186106703</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9431269328312442</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.503728845325329</v>
+      </c>
+      <c r="H91" t="n">
+        <v>3.039120657680277</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.1254118813893292</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-0.02342342054695812</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.7060220124259171</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.4750041846640666</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.448043423022729</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.216937911857259</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.2939779875740826</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.3531587559070679</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8094275200743262</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.7863874043938228</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.531551405103551</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.066902034239718</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.1905724799256737</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.1644921878778588</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>4</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.7679613851184115</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.8863345946735876</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.121603033804445</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.624748318780226</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.2320386148815884</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.2163131091654481</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>4</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.8936109783876156</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9284821498714155</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.079366867028332</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.0504570364509</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.1063890216123837</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0685211532772193</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>4</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6413578647063469</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6615423188338537</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.196387399309106</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1.140572443692928</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.3586421352936536</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.216528000590942</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>4</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.7676434094041243</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.8254530211262855</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.465785766713961</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.605259266308018</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.2323565905958753</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.1671207543445364</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.7025818246788098</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.985681453816185</v>
+      </c>
+      <c r="G98" t="n">
+        <v>18.45531185026754</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.350870406843873</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.2974181753211896</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.1547906886536089</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8473596213062367</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.856057267163012</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.607924283503644</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2.03000972718229</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.1526403786937632</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-0.1181264251015479</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.6460013522460593</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.7435562675824685</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.396709801040115</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.332546480949263</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.3539986477539417</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2176883384935273</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SVR</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.7319809327437019</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.8617649961872216</v>
+      </c>
+      <c r="G101" t="n">
+        <v>7.153315311603767</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.571142204991809</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.2680190672562983</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.08478420068186265</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.6364067296055637</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9162974638278452</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.718499579553193</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.487791768313928</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.363593270394436</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.283212199854177</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.8371018056379771</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.8189160519901921</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.348453186026563</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5.528770341276004</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.1628981943620227</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.001352098087643916</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.5292112221198569</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.4782865638497838</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.214841925485775</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1.003119625600221</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.4707887778801433</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.4392839224404264</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.6675732524544656</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.737833359889274</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.427264897021844</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2.673227245063385</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.3324267475455341</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.2412827401274154</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.6976063055375556</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.6978723132675834</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.454706071565759</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.396071809977515</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.3023936944624444</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.2001579622799936</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.8381305919651439</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.888466189867412</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.436972707032229</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.208587943340611</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.1618694080348564</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.006813831632511924</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.5999299319232653</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.7687794199381324</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.398720590722018</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.137914444110384</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.4000700680767344</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.3035568800022322</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.7118889431419885</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.7850393076910426</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.430133123106669</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.24752473247617</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.2881110568580115</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.1701762246382457</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.6567440643029199</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.9134878118902489</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.193261174126792</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.718570168740239</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.3432559356970797</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.1882179036799118</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.8441803974844445</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.8587562912711724</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.533168138495896</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2.569159903800732</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.1558196025155552</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.06813041761980787</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.5928540160719602</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.4762457439798014</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.205099296258326</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9642071009902012</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.4071459839280396</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.3514680512810171</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.6979261592864413</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.7494966157137409</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.31050953629367</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.75064572451039</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.3020738407135586</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.2026054575269123</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>4</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6915735433935497</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.8114270535570115</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.25572023594065</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2.807996123944722</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.3084264566064502</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.2825454985480716</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>4</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.8633378955101835</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.9148529750052157</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2.662738220761468</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.023475217757557</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.136662104489816</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.08219431660934062</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>4</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5439361285148049</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.5399863376544877</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.186944346737228</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.067050464549127</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.4560638714851956</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.3604881145600776</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.699615855806179</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.7554221220722382</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.701800934479782</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.632840602083802</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.3003841441938205</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.2417426432391633</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>5</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Y-1</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.6620060181066392</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.9652633208087148</v>
+      </c>
+      <c r="G118" t="n">
+        <v>22.65406434700417</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.231675806433123</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.3379939818933603</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.1722989780420396</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>5</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Y-2</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.7976699063019662</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.8142420049432381</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.303368858813926</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2.453965988728822</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.2023300936980337</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.06351004433601148</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>5</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Y-3</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5863571413200122</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.6319815369583767</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.137748032561808</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.9251666969859816</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.4136428586799887</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.3350785303353161</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>5</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>XGBR</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Y-All</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.6820110219095389</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.8038289542367769</v>
+      </c>
+      <c r="G121" t="n">
+        <v>8.365060412793301</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1.536936164049309</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.3179889780904612</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.1479558213471142</v>
       </c>
     </row>
   </sheetData>
